--- a/data_year/zb/教育/中等职业学校(机构)学生情况.xlsx
+++ b/data_year/zb/教育/中等职业学校(机构)学生情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,435 +473,291 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>425.4365</v>
+        <v>627.2645</v>
       </c>
       <c r="C2" t="n">
-        <v>1174.7467</v>
+        <v>1816.4447</v>
       </c>
       <c r="D2" t="n">
-        <v>400.0699</v>
+        <v>538.7353000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>456.5045</v>
+        <v>711.3957</v>
       </c>
       <c r="F2" t="n">
-        <v>305.6939</v>
+        <v>543.6523999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>151.3555</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>342.0318</v>
+      </c>
+      <c r="H2" t="n">
+        <v>563.2128</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>509.0379</v>
-      </c>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1324.7421</v>
-      </c>
-      <c r="D3" t="n">
-        <v>492.2138</v>
-      </c>
+        <v>1774.9068</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>537.2922</v>
+        <v>649.9626</v>
       </c>
       <c r="F3" t="n">
-        <v>349.1921</v>
+        <v>541.1251999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>186.4778</v>
+        <v>338.4287</v>
       </c>
       <c r="H3" t="n">
-        <v>391.9519</v>
+        <v>573.4745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>580.2988</v>
-      </c>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1489.0719</v>
-      </c>
-      <c r="D4" t="n">
-        <v>561.6975</v>
-      </c>
+        <v>1689.882</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>613.0607</v>
+        <v>597.0785</v>
       </c>
       <c r="F4" t="n">
-        <v>392.6271</v>
+        <v>554.384</v>
       </c>
       <c r="G4" t="n">
-        <v>220.0018</v>
+        <v>348.3872</v>
       </c>
       <c r="H4" t="n">
-        <v>435.7676</v>
+        <v>566.3952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>607.8414</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1619.859</v>
-      </c>
-      <c r="D5" t="n">
-        <v>581.6666</v>
-      </c>
+        <v>1536.3842</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>651.4754</v>
+        <v>541.2624</v>
       </c>
       <c r="F5" t="n">
-        <v>431.2433</v>
+        <v>557.5587</v>
       </c>
       <c r="G5" t="n">
-        <v>253.5815</v>
+        <v>433.6937</v>
       </c>
       <c r="H5" t="n">
-        <v>479.7747</v>
+        <v>539.2971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>596.2894</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1688.2421</v>
-      </c>
-      <c r="D6" t="n">
-        <v>561.7727</v>
-      </c>
+        <v>1416.3127</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>650.2739</v>
+        <v>495.3553</v>
       </c>
       <c r="F6" t="n">
-        <v>471.0924</v>
+        <v>516.1519</v>
       </c>
       <c r="G6" t="n">
-        <v>281.9264</v>
+        <v>403.2975</v>
       </c>
       <c r="H6" t="n">
-        <v>521.8475</v>
+        <v>490.2884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>627.9411</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1779.8473</v>
-      </c>
-      <c r="D7" t="n">
-        <v>546.7998</v>
-      </c>
+        <v>1335.2414</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>711.777</v>
+        <v>479.8174</v>
       </c>
       <c r="F7" t="n">
-        <v>509.6654</v>
+        <v>473.2654</v>
       </c>
       <c r="G7" t="n">
-        <v>313.126</v>
+        <v>381.3336</v>
       </c>
       <c r="H7" t="n">
-        <v>561.0027</v>
+        <v>456.0122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>627.2645</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1816.4447</v>
-      </c>
-      <c r="D8" t="n">
-        <v>538.7353000000001</v>
-      </c>
+        <v>1275.8604</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>711.3957</v>
+        <v>466.1428</v>
       </c>
       <c r="F8" t="n">
-        <v>543.6523999999999</v>
+        <v>440.5572</v>
       </c>
       <c r="G8" t="n">
-        <v>342.0318</v>
+        <v>354.7673</v>
       </c>
       <c r="H8" t="n">
-        <v>563.2128</v>
+        <v>419.2367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1774.9068</v>
+        <v>1254.2893</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>649.9626</v>
+        <v>451.5235</v>
       </c>
       <c r="F9" t="n">
-        <v>541.1251999999999</v>
+        <v>406.3981</v>
       </c>
       <c r="G9" t="n">
-        <v>338.4287</v>
+        <v>321.8321</v>
       </c>
       <c r="H9" t="n">
-        <v>573.4745</v>
+        <v>413.6983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1689.882</v>
+        <v>1213.628</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>597.0785</v>
+        <v>428.5024</v>
       </c>
       <c r="F10" t="n">
-        <v>554.384</v>
+        <v>396.977</v>
       </c>
       <c r="G10" t="n">
-        <v>348.3872</v>
+        <v>299.7739</v>
       </c>
       <c r="H10" t="n">
-        <v>566.3952</v>
+        <v>405.6047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1536.3842</v>
+        <v>1216.1663</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>541.2624</v>
+        <v>457.4121</v>
       </c>
       <c r="F11" t="n">
-        <v>557.5587</v>
+        <v>395.0427</v>
       </c>
       <c r="G11" t="n">
-        <v>433.6937</v>
+        <v>283.9511</v>
       </c>
       <c r="H11" t="n">
-        <v>539.2971</v>
+        <v>391.9994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1416.3127</v>
+        <v>1267.8379</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>495.3553</v>
+        <v>484.6056</v>
       </c>
       <c r="F12" t="n">
-        <v>516.1519</v>
+        <v>383.4642</v>
       </c>
       <c r="G12" t="n">
-        <v>403.2975</v>
+        <v>257.9124</v>
       </c>
       <c r="H12" t="n">
-        <v>490.2884</v>
+        <v>385.1372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1335.2414</v>
+        <v>1311.8146</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>479.8174</v>
+        <v>488.989</v>
       </c>
       <c r="F13" t="n">
-        <v>473.2654</v>
-      </c>
-      <c r="G13" t="n">
-        <v>381.3336</v>
-      </c>
+        <v>375.3709</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>456.0122</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>1275.8604</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>466.1428</v>
-      </c>
-      <c r="F14" t="n">
-        <v>440.5572</v>
-      </c>
-      <c r="G14" t="n">
-        <v>354.7673</v>
-      </c>
-      <c r="H14" t="n">
-        <v>419.2367</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>1254.2893</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>451.5235</v>
-      </c>
-      <c r="F15" t="n">
-        <v>406.3981</v>
-      </c>
-      <c r="G15" t="n">
-        <v>321.8321</v>
-      </c>
-      <c r="H15" t="n">
-        <v>413.6983</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>1213.628</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>428.5024</v>
-      </c>
-      <c r="F16" t="n">
-        <v>396.977</v>
-      </c>
-      <c r="G16" t="n">
-        <v>299.7739</v>
-      </c>
-      <c r="H16" t="n">
-        <v>405.6047</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>1216.1663</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>457.4121</v>
-      </c>
-      <c r="F17" t="n">
-        <v>395.0427</v>
-      </c>
-      <c r="G17" t="n">
-        <v>283.9511</v>
-      </c>
-      <c r="H17" t="n">
-        <v>391.9994</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>1267.8379</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>484.6056</v>
-      </c>
-      <c r="F18" t="n">
-        <v>383.4642</v>
-      </c>
-      <c r="G18" t="n">
-        <v>257.9124</v>
-      </c>
-      <c r="H18" t="n">
-        <v>385.1372</v>
+        <v>405.8842</v>
       </c>
     </row>
   </sheetData>
